--- a/plan/调研/平台接入/ANE 扩展.xlsx
+++ b/plan/调研/平台接入/ANE 扩展.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>iOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>ANE List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +226,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,8 +242,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,12 +572,13 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -783,7 +800,7 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
@@ -812,6 +829,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" x14ac:dyDescent="0.15">
